--- a/12/2/Tasa de Política Monetaria 1990 a 2021 - Trimestral.xlsx
+++ b/12/2/Tasa de Política Monetaria 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Serie</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5812,6 +5815,65 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="128" spans="1:19">
+      <c r="A128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128">
+        <v>0.25</v>
+      </c>
+      <c r="C128">
+        <v>0.1</v>
+      </c>
+      <c r="D128">
+        <v>-0.1</v>
+      </c>
+      <c r="E128">
+        <v>-0.5</v>
+      </c>
+      <c r="F128">
+        <v>0.59</v>
+      </c>
+      <c r="G128">
+        <v>4.35</v>
+      </c>
+      <c r="H128">
+        <v>1.75</v>
+      </c>
+      <c r="I128">
+        <v>0.1</v>
+      </c>
+      <c r="J128">
+        <v>0.65</v>
+      </c>
+      <c r="K128">
+        <v>6.3</v>
+      </c>
+      <c r="L128">
+        <v>0.5</v>
+      </c>
+      <c r="M128">
+        <v>1.13</v>
+      </c>
+      <c r="N128">
+        <v>18.91</v>
+      </c>
+      <c r="O128">
+        <v>38</v>
+      </c>
+      <c r="P128">
+        <v>4.99</v>
+      </c>
+      <c r="Q128">
+        <v>1.75</v>
+      </c>
+      <c r="R128">
+        <v>4.39</v>
+      </c>
+      <c r="S128">
+        <v>0.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
